--- a/Doors.xlsx
+++ b/Doors.xlsx
@@ -1,21 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\Python\vscode-practice\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{385292F5-8F5A-4938-A2FF-79A5C664460A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView/>
+    <workbookView xWindow="380" yWindow="290" windowWidth="10040" windowHeight="10510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Data'!$1:$79</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$1:$79</definedName>
   </definedNames>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="188">
   <si>
     <t>EntityId</t>
   </si>
@@ -584,7 +592,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0#"/>
   </numFmts>
@@ -600,7 +608,7 @@
     <font>
       <b/>
       <sz val="10"/>
-      <color rgb="FFFFFFFF" tint="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Segoe UI"/>
     </font>
   </fonts>
@@ -613,7 +621,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF0E1C43" tint="0"/>
+        <fgColor rgb="FF0E1C43"/>
       </patternFill>
     </fill>
   </fills>
@@ -629,91 +637,391 @@
       <left/>
       <right/>
       <top style="thick">
-        <color rgb="FFFFFFFF" tint="0"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thick">
-        <color rgb="FFFFFFFF" tint="0"/>
+        <color rgb="FFFFFFFF"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thick">
-        <color rgb="FFFFFFFF" tint="0"/>
+        <color rgb="FFFFFFFF"/>
       </left>
       <right/>
       <top style="thick">
-        <color rgb="FFFFFFFF" tint="0"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thick">
-        <color rgb="FFFFFFFF" tint="0"/>
+        <color rgb="FFFFFFFF"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thick">
-        <color rgb="FFFFFFFF" tint="0"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thick">
-        <color rgb="FFFFFFFF" tint="0"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thick">
-        <color rgb="FFFFFFFF" tint="0"/>
+        <color rgb="FFFFFFFF"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" textRotation="90"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="2" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" textRotation="90"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="2" applyFill="1" borderId="3" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" textRotation="90"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="1:79"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:XFD79"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" state="frozen" activePane="bottomLeft"/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1" style="1"/>
-    <col min="2" max="2" width="9.140625" customWidth="1" style="1"/>
-    <col min="3" max="3" width="9.140625" customWidth="1" style="1"/>
-    <col min="4" max="4" width="15.4823894500732" customWidth="1" style="1"/>
-    <col min="5" max="5" width="32.2308959960938" customWidth="1" style="1"/>
-    <col min="6" max="6" width="9.140625" customWidth="1" style="1"/>
-    <col min="7" max="7" width="10.4182147979736" customWidth="1" style="1"/>
-    <col min="8" max="8" width="9.140625" customWidth="1" style="1"/>
-    <col min="9" max="9" width="9.140625" customWidth="1" style="1"/>
-    <col min="10" max="10" width="9.140625" customWidth="1" style="1"/>
-    <col min="11" max="11" width="22.9730854034424" customWidth="1" style="1"/>
-    <col min="12" max="12" width="22.9730854034424" customWidth="1" style="1"/>
-    <col min="13" max="16384" width="9.140625" customWidth="1" style="1"/>
+    <col min="1" max="3" width="9.1796875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="32.26953125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.1796875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.453125" style="1" customWidth="1"/>
+    <col min="8" max="10" width="9.1796875" style="1" customWidth="1"/>
+    <col min="11" max="12" width="23" style="1" customWidth="1"/>
+    <col min="13" max="13" width="9.1796875" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="120" customHeight="1" s="3" customFormat="1">
+    <row r="1" spans="1:12 16384:16384" s="3" customFormat="1" ht="120" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -752,7 +1060,7 @@
       </c>
       <c r="XFD1" s="5"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:12 16384:16384">
       <c r="A2" s="1">
         <v>22142</v>
       </c>
@@ -790,7 +1098,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:12 16384:16384">
       <c r="A3" s="1">
         <v>22157</v>
       </c>
@@ -828,7 +1136,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:12 16384:16384">
       <c r="A4" s="1">
         <v>22171</v>
       </c>
@@ -866,7 +1174,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:12 16384:16384">
       <c r="A5" s="1">
         <v>27724</v>
       </c>
@@ -904,7 +1212,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:12 16384:16384">
       <c r="A6" s="1">
         <v>27739</v>
       </c>
@@ -942,7 +1250,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:12 16384:16384">
       <c r="A7" s="1">
         <v>27753</v>
       </c>
@@ -980,7 +1288,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:12 16384:16384">
       <c r="A8" s="1">
         <v>33306</v>
       </c>
@@ -1018,7 +1326,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:12 16384:16384">
       <c r="A9" s="1">
         <v>33321</v>
       </c>
@@ -1056,7 +1364,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:12 16384:16384">
       <c r="A10" s="1">
         <v>33335</v>
       </c>
@@ -1094,7 +1402,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:12 16384:16384">
       <c r="A11" s="1">
         <v>37731</v>
       </c>
@@ -1132,7 +1440,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:12 16384:16384">
       <c r="A12" s="1">
         <v>43284</v>
       </c>
@@ -1170,7 +1478,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:12 16384:16384">
       <c r="A13" s="1">
         <v>43299</v>
       </c>
@@ -1208,7 +1516,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:12 16384:16384">
       <c r="A14" s="1">
         <v>48852</v>
       </c>
@@ -1246,7 +1554,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:12 16384:16384">
       <c r="A15" s="1">
         <v>54477</v>
       </c>
@@ -1284,7 +1592,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:12 16384:16384">
       <c r="A16" s="1">
         <v>60061</v>
       </c>
@@ -1322,7 +1630,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:12">
       <c r="A17" s="1">
         <v>65615</v>
       </c>
@@ -1360,7 +1668,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:12">
       <c r="A18" s="1">
         <v>71169</v>
       </c>
@@ -1398,7 +1706,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:12">
       <c r="A19" s="1">
         <v>76723</v>
       </c>
@@ -1436,7 +1744,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:12">
       <c r="A20" s="1">
         <v>76738</v>
       </c>
@@ -1474,7 +1782,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:12">
       <c r="A21" s="1">
         <v>82291</v>
       </c>
@@ -1512,7 +1820,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:12">
       <c r="A22" s="1">
         <v>87845</v>
       </c>
@@ -1550,7 +1858,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:12">
       <c r="A23" s="1">
         <v>87860</v>
       </c>
@@ -1588,7 +1896,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:12">
       <c r="A24" s="1">
         <v>93413</v>
       </c>
@@ -1626,7 +1934,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:12">
       <c r="A25" s="1">
         <v>93428</v>
       </c>
@@ -1664,7 +1972,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:12">
       <c r="A26" s="1">
         <v>98981</v>
       </c>
@@ -1702,7 +2010,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:12">
       <c r="A27" s="1">
         <v>98996</v>
       </c>
@@ -1740,7 +2048,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:12">
       <c r="A28" s="1">
         <v>99102</v>
       </c>
@@ -1778,7 +2086,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:12">
       <c r="A29" s="1">
         <v>104726</v>
       </c>
@@ -1816,7 +2124,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:12">
       <c r="A30" s="1">
         <v>104741</v>
       </c>
@@ -1854,7 +2162,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:12">
       <c r="A31" s="1">
         <v>110294</v>
       </c>
@@ -1892,7 +2200,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:12">
       <c r="A32" s="1">
         <v>115848</v>
       </c>
@@ -1930,7 +2238,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:12">
       <c r="A33" s="1">
         <v>118797</v>
       </c>
@@ -1968,7 +2276,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:12">
       <c r="A34" s="1">
         <v>119737</v>
       </c>
@@ -2006,7 +2314,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:12">
       <c r="A35" s="1">
         <v>125441</v>
       </c>
@@ -2044,7 +2352,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:12">
       <c r="A36" s="1">
         <v>125536</v>
       </c>
@@ -2082,7 +2390,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:12">
       <c r="A37" s="1">
         <v>125888</v>
       </c>
@@ -2120,7 +2428,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:12">
       <c r="A38" s="1">
         <v>125938</v>
       </c>
@@ -2158,7 +2466,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:12">
       <c r="A39" s="1">
         <v>126065</v>
       </c>
@@ -2196,7 +2504,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:12">
       <c r="A40" s="1">
         <v>134239</v>
       </c>
@@ -2234,7 +2542,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:12">
       <c r="A41" s="1">
         <v>134254</v>
       </c>
@@ -2272,7 +2580,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:12">
       <c r="A42" s="1">
         <v>134268</v>
       </c>
@@ -2310,7 +2618,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:12">
       <c r="A43" s="1">
         <v>139875</v>
       </c>
@@ -2348,7 +2656,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:12">
       <c r="A44" s="1">
         <v>145429</v>
       </c>
@@ -2386,7 +2694,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:12">
       <c r="A45" s="1">
         <v>145444</v>
       </c>
@@ -2424,7 +2732,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:12">
       <c r="A46" s="1">
         <v>150997</v>
       </c>
@@ -2462,7 +2770,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:12">
       <c r="A47" s="1">
         <v>151012</v>
       </c>
@@ -2500,7 +2808,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:12">
       <c r="A48" s="1">
         <v>151053</v>
       </c>
@@ -2538,7 +2846,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:12">
       <c r="A49" s="1">
         <v>151262</v>
       </c>
@@ -2576,7 +2884,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:12">
       <c r="A50" s="1">
         <v>151324</v>
       </c>
@@ -2614,7 +2922,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:12">
       <c r="A51" s="1">
         <v>151525</v>
       </c>
@@ -2652,7 +2960,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:12">
       <c r="A52" s="1">
         <v>157149</v>
       </c>
@@ -2690,7 +2998,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:12">
       <c r="A53" s="1">
         <v>157164</v>
       </c>
@@ -2728,7 +3036,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:12">
       <c r="A54" s="1">
         <v>157178</v>
       </c>
@@ -2766,7 +3074,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:12">
       <c r="A55" s="1">
         <v>157240</v>
       </c>
@@ -2804,7 +3112,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:12">
       <c r="A56" s="1">
         <v>157706</v>
       </c>
@@ -2842,7 +3150,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:12">
       <c r="A57" s="1">
         <v>163259</v>
       </c>
@@ -2880,7 +3188,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:12">
       <c r="A58" s="1">
         <v>163617</v>
       </c>
@@ -2918,7 +3226,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:12">
       <c r="A59" s="1">
         <v>163634</v>
       </c>
@@ -2956,7 +3264,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:12">
       <c r="A60" s="1">
         <v>163687</v>
       </c>
@@ -2994,7 +3302,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:12">
       <c r="A61" s="1">
         <v>163704</v>
       </c>
@@ -3032,7 +3340,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:12">
       <c r="A62" s="1">
         <v>165233</v>
       </c>
@@ -3070,7 +3378,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:12">
       <c r="A63" s="1">
         <v>165799</v>
       </c>
@@ -3108,7 +3416,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:12">
       <c r="A64" s="1">
         <v>171982</v>
       </c>
@@ -3146,7 +3454,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:12">
       <c r="A65" s="1">
         <v>177536</v>
       </c>
@@ -3184,7 +3492,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:12">
       <c r="A66" s="1">
         <v>177551</v>
       </c>
@@ -3222,7 +3530,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:12">
       <c r="A67" s="1">
         <v>177613</v>
       </c>
@@ -3260,7 +3568,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:12">
       <c r="A68" s="1">
         <v>177630</v>
       </c>
@@ -3298,7 +3606,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:12">
       <c r="A69" s="1">
         <v>178013</v>
       </c>
@@ -3336,7 +3644,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:12">
       <c r="A70" s="1">
         <v>178089</v>
       </c>
@@ -3374,7 +3682,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:12">
       <c r="A71" s="1">
         <v>178489</v>
       </c>
@@ -3412,7 +3720,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:12">
       <c r="A72" s="1">
         <v>178565</v>
       </c>
@@ -3450,7 +3758,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:12">
       <c r="A73" s="1">
         <v>182258</v>
       </c>
@@ -3488,7 +3796,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:12">
       <c r="A74" s="1">
         <v>182578</v>
       </c>
@@ -3526,7 +3834,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:12">
       <c r="A75" s="1">
         <v>182920</v>
       </c>
@@ -3564,7 +3872,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:12">
       <c r="A76" s="1">
         <v>183085</v>
       </c>
@@ -3602,7 +3910,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:12">
       <c r="A77" s="1">
         <v>189002</v>
       </c>
@@ -3640,7 +3948,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:12">
       <c r="A78" s="1">
         <v>895312</v>
       </c>
@@ -3678,7 +3986,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:12">
       <c r="A79" s="1">
         <v>1001728</v>
       </c>
@@ -3717,7 +4025,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="1:79"/>
-  <headerFooter/>
+  <autoFilter ref="A1:XFD79" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>